--- a/nesting_conopophagidae.xlsx
+++ b/nesting_conopophagidae.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="98">
   <si>
     <t>Species</t>
   </si>
@@ -868,6 +868,9 @@
     </r>
   </si>
   <si>
+    <t>Londoño (2014)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -1356,7 +1359,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>. (2003)</t>
+      <t>. (2013)</t>
     </r>
   </si>
   <si>
@@ -11914,15 +11917,9 @@
       <c r="A21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
-        <v>21.2</v>
-      </c>
-      <c r="C21" s="5">
-        <v>16.3</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2.7</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="5">
         <v>2.0</v>
       </c>
@@ -11930,7 +11927,7 @@
         <v>1.0</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
@@ -11938,16 +11935,20 @@
         <v>19</v>
       </c>
       <c r="B22" s="5">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="C22" s="5">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="D22" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="22"/>
+        <v>2.7</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F22" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G22" s="11" t="s">
         <v>23</v>
       </c>
@@ -11957,20 +11958,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="5">
-        <v>21.9</v>
+        <v>21.3</v>
       </c>
       <c r="C23" s="5">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="D23" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="E23" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="F23" s="22">
-        <v>1.0</v>
-      </c>
+        <v>2.8</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="22"/>
       <c r="G23" s="11" t="s">
         <v>23</v>
       </c>
@@ -11980,12 +11977,14 @@
         <v>19</v>
       </c>
       <c r="B24" s="5">
-        <v>20.8</v>
+        <v>21.9</v>
       </c>
       <c r="C24" s="5">
-        <v>16.2</v>
-      </c>
-      <c r="D24" s="14"/>
+        <v>16.7</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3.3</v>
+      </c>
       <c r="E24" s="5">
         <v>2.0</v>
       </c>
@@ -12001,14 +12000,18 @@
         <v>19</v>
       </c>
       <c r="B25" s="5">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="C25" s="5">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="D25" s="14"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="22"/>
+      <c r="E25" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F25" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G25" s="11" t="s">
         <v>23</v>
       </c>
@@ -12017,38 +12020,34 @@
       <c r="A26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="5">
+        <v>20.5</v>
+      </c>
+      <c r="C26" s="5">
+        <v>16.1</v>
+      </c>
       <c r="D26" s="14"/>
-      <c r="E26" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="F26" s="22">
-        <v>12.0</v>
-      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="5">
-        <v>22.8</v>
-      </c>
-      <c r="C27" s="5">
-        <v>18.0</v>
-      </c>
+      <c r="A27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="14"/>
       <c r="E27" s="5">
         <v>2.0</v>
       </c>
       <c r="F27" s="22">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -12056,14 +12055,18 @@
         <v>24</v>
       </c>
       <c r="B28" s="5">
-        <v>21.7</v>
+        <v>22.8</v>
       </c>
       <c r="C28" s="5">
         <v>18.0</v>
       </c>
       <c r="D28" s="14"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="22"/>
+      <c r="E28" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F28" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G28" s="11" t="s">
         <v>67</v>
       </c>
@@ -12072,15 +12075,15 @@
       <c r="A29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="5">
+        <v>21.7</v>
+      </c>
+      <c r="C29" s="5">
+        <v>18.0</v>
+      </c>
       <c r="D29" s="14"/>
-      <c r="E29" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F29" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="11" t="s">
         <v>68</v>
       </c>
@@ -12093,7 +12096,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="14"/>
       <c r="E30" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F30" s="22">
         <v>1.0</v>
@@ -12106,15 +12109,9 @@
       <c r="A31" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="5">
-        <v>22.64</v>
-      </c>
-      <c r="C31" s="5">
-        <v>18.05</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="5">
         <v>2.0</v>
       </c>
@@ -12122,7 +12119,7 @@
         <v>1.0</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -12130,14 +12127,20 @@
         <v>24</v>
       </c>
       <c r="B32" s="5">
-        <v>21.75</v>
+        <v>22.64</v>
       </c>
       <c r="C32" s="5">
-        <v>17.85</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="22"/>
+        <v>18.05</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F32" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G32" s="11" t="s">
         <v>72</v>
       </c>
@@ -12146,17 +12149,15 @@
       <c r="A33" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="F33" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="B33" s="5">
+        <v>21.75</v>
+      </c>
+      <c r="C33" s="5">
+        <v>17.85</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="11" t="s">
         <v>73</v>
       </c>
@@ -12165,13 +12166,11 @@
       <c r="A34" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="C34" s="5">
-        <v>16.0</v>
-      </c>
-      <c r="D34" s="14"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="E34" s="5">
         <v>2.0</v>
       </c>
@@ -12187,35 +12186,35 @@
         <v>24</v>
       </c>
       <c r="B35" s="5">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="C35" s="5">
         <v>16.0</v>
       </c>
       <c r="D35" s="14"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="22"/>
+      <c r="E35" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F35" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G35" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="13" t="s">
-        <v>29</v>
+      <c r="A36" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="B36" s="5">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C36" s="5">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="D36" s="14"/>
-      <c r="E36" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="F36" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="11" t="s">
         <v>76</v>
       </c>
@@ -12231,10 +12230,14 @@
         <v>17.0</v>
       </c>
       <c r="D37" s="14"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="22"/>
+      <c r="E37" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F37" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G37" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
@@ -12242,40 +12245,36 @@
         <v>29</v>
       </c>
       <c r="B38" s="5">
-        <v>21.3</v>
+        <v>20.0</v>
       </c>
       <c r="C38" s="5">
-        <v>17.2</v>
-      </c>
-      <c r="D38" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="E38" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="F38" s="22">
         <v>17.0</v>
       </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="16" t="s">
-        <v>33</v>
+      <c r="A39" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B39" s="5">
-        <v>20.5</v>
+        <v>21.3</v>
       </c>
       <c r="C39" s="5">
-        <v>17.0</v>
-      </c>
-      <c r="D39" s="14"/>
+        <v>17.2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3.1</v>
+      </c>
       <c r="E39" s="5">
         <v>2.0</v>
       </c>
       <c r="F39" s="22">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>78</v>
@@ -12286,16 +12285,20 @@
         <v>33</v>
       </c>
       <c r="B40" s="5">
-        <v>21.0</v>
+        <v>20.5</v>
       </c>
       <c r="C40" s="5">
-        <v>17.5</v>
+        <v>17.0</v>
       </c>
       <c r="D40" s="14"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="22"/>
+      <c r="E40" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F40" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G40" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
@@ -12303,20 +12306,16 @@
         <v>33</v>
       </c>
       <c r="B41" s="5">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C41" s="5">
-        <v>18.0</v>
+        <v>17.5</v>
       </c>
       <c r="D41" s="14"/>
-      <c r="E41" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="F41" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>34</v>
+      <c r="E41" s="5"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="42">
@@ -12324,14 +12323,18 @@
         <v>33</v>
       </c>
       <c r="B42" s="5">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C42" s="5">
         <v>18.0</v>
       </c>
       <c r="D42" s="14"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="22"/>
+      <c r="E42" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F42" s="22">
+        <v>2.0</v>
+      </c>
       <c r="G42" s="6" t="s">
         <v>34</v>
       </c>
@@ -12347,14 +12350,10 @@
         <v>18.0</v>
       </c>
       <c r="D43" s="14"/>
-      <c r="E43" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="F43" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>79</v>
+      <c r="E43" s="5"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -12362,33 +12361,37 @@
         <v>33</v>
       </c>
       <c r="B44" s="5">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C44" s="5">
         <v>18.0</v>
       </c>
       <c r="D44" s="14"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="22"/>
+      <c r="E44" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F44" s="22">
+        <v>2.0</v>
+      </c>
       <c r="G44" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+      <c r="B45" s="5">
+        <v>24.0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>18.0</v>
+      </c>
       <c r="D45" s="14"/>
-      <c r="E45" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="F45" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="22"/>
       <c r="G45" s="11" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
@@ -12399,7 +12402,7 @@
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F46" s="22">
         <v>1.0</v>
@@ -12412,19 +12415,17 @@
       <c r="A47" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="5">
-        <v>22.7</v>
-      </c>
-      <c r="C47" s="5">
-        <v>17.5</v>
-      </c>
-      <c r="D47" s="5">
-        <v>3.7</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="22"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="F47" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G47" s="11" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
@@ -12432,13 +12433,13 @@
         <v>33</v>
       </c>
       <c r="B48" s="5">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="C48" s="5">
-        <v>17.8</v>
+        <v>17.5</v>
       </c>
       <c r="D48" s="5">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="22"/>
@@ -12451,16 +12452,18 @@
         <v>33</v>
       </c>
       <c r="B49" s="5">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="C49" s="5">
-        <v>18.25</v>
-      </c>
-      <c r="D49" s="5"/>
+        <v>17.8</v>
+      </c>
+      <c r="D49" s="5">
+        <v>3.9</v>
+      </c>
       <c r="E49" s="5"/>
       <c r="F49" s="22"/>
       <c r="G49" s="11" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50">
@@ -12468,10 +12471,10 @@
         <v>33</v>
       </c>
       <c r="B50" s="5">
-        <v>23.0</v>
+        <v>22.9</v>
       </c>
       <c r="C50" s="5">
-        <v>17.5</v>
+        <v>18.25</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -12485,10 +12488,10 @@
         <v>33</v>
       </c>
       <c r="B51" s="5">
-        <v>22.65</v>
+        <v>23.0</v>
       </c>
       <c r="C51" s="5">
-        <v>17.85</v>
+        <v>17.5</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -12502,10 +12505,10 @@
         <v>33</v>
       </c>
       <c r="B52" s="5">
-        <v>22.15</v>
+        <v>22.65</v>
       </c>
       <c r="C52" s="5">
-        <v>17.2</v>
+        <v>17.85</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -12519,10 +12522,10 @@
         <v>33</v>
       </c>
       <c r="B53" s="5">
-        <v>21.4</v>
+        <v>22.15</v>
       </c>
       <c r="C53" s="5">
-        <v>16.85</v>
+        <v>17.2</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -12536,20 +12539,14 @@
         <v>33</v>
       </c>
       <c r="B54" s="5">
-        <v>21.0</v>
+        <v>21.4</v>
       </c>
       <c r="C54" s="5">
-        <v>18.0</v>
-      </c>
-      <c r="D54" s="5">
-        <v>2.9</v>
-      </c>
-      <c r="E54" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="F54" s="22">
-        <v>3.0</v>
-      </c>
+        <v>16.85</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="22"/>
       <c r="G54" s="11" t="s">
         <v>85</v>
       </c>
@@ -12559,16 +12556,20 @@
         <v>33</v>
       </c>
       <c r="B55" s="5">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C55" s="5">
         <v>18.0</v>
       </c>
       <c r="D55" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="22"/>
+        <v>2.9</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F55" s="22">
+        <v>3.0</v>
+      </c>
       <c r="G55" s="11" t="s">
         <v>86</v>
       </c>
@@ -12577,15 +12578,17 @@
       <c r="A56" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B56" s="23">
-        <v>23.0</v>
-      </c>
-      <c r="C56" s="23">
-        <v>17.0</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="24"/>
+      <c r="B56" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="C56" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="22"/>
       <c r="G56" s="11" t="s">
         <v>87</v>
       </c>
@@ -12595,10 +12598,10 @@
         <v>33</v>
       </c>
       <c r="B57" s="23">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C57" s="23">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -12611,32 +12614,36 @@
       <c r="A58" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="5">
-        <v>22.5</v>
-      </c>
-      <c r="C58" s="5">
-        <v>16.9</v>
-      </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="F58" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="B58" s="23">
+        <v>24.0</v>
+      </c>
+      <c r="C58" s="23">
+        <v>18.0</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="24"/>
       <c r="G58" s="11" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="5">
+        <v>22.5</v>
+      </c>
+      <c r="C59" s="5">
+        <v>16.9</v>
+      </c>
       <c r="D59" s="14"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="22"/>
+      <c r="E59" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F59" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G59" s="11" t="s">
         <v>42</v>
       </c>
@@ -12645,21 +12652,13 @@
       <c r="A60" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B60" s="5">
-        <v>22.3</v>
-      </c>
-      <c r="C60" s="5">
-        <v>18.0</v>
-      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="14"/>
-      <c r="E60" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="F60" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="22"/>
       <c r="G60" s="11" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61">
@@ -12667,14 +12666,18 @@
         <v>33</v>
       </c>
       <c r="B61" s="5">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="C61" s="5">
-        <v>17.6</v>
+        <v>18.0</v>
       </c>
       <c r="D61" s="14"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="22"/>
+      <c r="E61" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F61" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G61" s="11" t="s">
         <v>90</v>
       </c>
@@ -12683,15 +12686,15 @@
       <c r="A62" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
+      <c r="B62" s="5">
+        <v>22.1</v>
+      </c>
+      <c r="C62" s="5">
+        <v>17.6</v>
+      </c>
       <c r="D62" s="14"/>
-      <c r="E62" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="F62" s="22">
-        <v>10.0</v>
-      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="22"/>
       <c r="G62" s="11" t="s">
         <v>91</v>
       </c>
@@ -12704,10 +12707,10 @@
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F63" s="22">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>92</v>
@@ -12721,7 +12724,7 @@
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F64" s="22">
         <v>1.0</v>
@@ -12755,10 +12758,10 @@
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
       <c r="E66" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F66" s="22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>95</v>
@@ -12772,10 +12775,10 @@
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="5">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F67" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>96</v>
@@ -12785,21 +12788,17 @@
       <c r="A68" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="5">
-        <v>22.5</v>
-      </c>
-      <c r="C68" s="5">
-        <v>16.8</v>
-      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F68" s="22">
         <v>1.0</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69">
@@ -12807,14 +12806,18 @@
         <v>33</v>
       </c>
       <c r="B69" s="5">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="C69" s="5">
-        <v>17.1</v>
+        <v>16.8</v>
       </c>
       <c r="D69" s="14"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="22"/>
+      <c r="E69" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F69" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G69" s="11" t="s">
         <v>48</v>
       </c>
@@ -12823,15 +12826,15 @@
       <c r="A70" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
+      <c r="B70" s="5">
+        <v>22.6</v>
+      </c>
+      <c r="C70" s="5">
+        <v>17.1</v>
+      </c>
       <c r="D70" s="14"/>
-      <c r="E70" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="F70" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="22"/>
       <c r="G70" s="11" t="s">
         <v>48</v>
       </c>
@@ -12840,12 +12843,8 @@
       <c r="A71" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="5">
-        <v>22.1</v>
-      </c>
-      <c r="C71" s="5">
-        <v>17.0</v>
-      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="14"/>
       <c r="E71" s="5">
         <v>2.0</v>
@@ -12862,14 +12861,18 @@
         <v>33</v>
       </c>
       <c r="B72" s="5">
-        <v>22.8</v>
+        <v>22.1</v>
       </c>
       <c r="C72" s="5">
-        <v>17.4</v>
+        <v>17.0</v>
       </c>
       <c r="D72" s="14"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="22"/>
+      <c r="E72" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F72" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G72" s="11" t="s">
         <v>48</v>
       </c>
@@ -12879,18 +12882,14 @@
         <v>33</v>
       </c>
       <c r="B73" s="5">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="C73" s="5">
-        <v>16.8</v>
+        <v>17.4</v>
       </c>
       <c r="D73" s="14"/>
-      <c r="E73" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="F73" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="22"/>
       <c r="G73" s="11" t="s">
         <v>48</v>
       </c>
@@ -12900,14 +12899,18 @@
         <v>33</v>
       </c>
       <c r="B74" s="5">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="C74" s="5">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="D74" s="14"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="22"/>
+      <c r="E74" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F74" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G74" s="11" t="s">
         <v>48</v>
       </c>
@@ -12917,20 +12920,14 @@
         <v>33</v>
       </c>
       <c r="B75" s="5">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="C75" s="5">
         <v>16.9</v>
       </c>
-      <c r="D75" s="5">
-        <v>3.4</v>
-      </c>
-      <c r="E75" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="F75" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="D75" s="14"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="22"/>
       <c r="G75" s="11" t="s">
         <v>48</v>
       </c>
@@ -12940,16 +12937,20 @@
         <v>33</v>
       </c>
       <c r="B76" s="5">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="C76" s="5">
-        <v>17.2</v>
+        <v>16.9</v>
       </c>
       <c r="D76" s="5">
-        <v>3.7</v>
-      </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="22"/>
+        <v>3.4</v>
+      </c>
+      <c r="E76" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F76" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G76" s="11" t="s">
         <v>48</v>
       </c>
@@ -12959,20 +12960,16 @@
         <v>33</v>
       </c>
       <c r="B77" s="5">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="C77" s="5">
         <v>17.2</v>
       </c>
       <c r="D77" s="5">
-        <v>3.6</v>
-      </c>
-      <c r="E77" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="F77" s="22">
-        <v>1.0</v>
-      </c>
+        <v>3.7</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="22"/>
       <c r="G77" s="11" t="s">
         <v>48</v>
       </c>
@@ -12982,16 +12979,20 @@
         <v>33</v>
       </c>
       <c r="B78" s="5">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="C78" s="5">
-        <v>17.0</v>
+        <v>17.2</v>
       </c>
       <c r="D78" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="22"/>
+        <v>3.6</v>
+      </c>
+      <c r="E78" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F78" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G78" s="11" t="s">
         <v>48</v>
       </c>
@@ -13001,20 +13002,16 @@
         <v>33</v>
       </c>
       <c r="B79" s="5">
-        <v>21.2</v>
+        <v>22.9</v>
       </c>
       <c r="C79" s="5">
-        <v>16.4</v>
+        <v>17.0</v>
       </c>
       <c r="D79" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E79" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="F79" s="22">
-        <v>1.0</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E79" s="14"/>
+      <c r="F79" s="22"/>
       <c r="G79" s="11" t="s">
         <v>48</v>
       </c>
@@ -13024,79 +13021,81 @@
         <v>33</v>
       </c>
       <c r="B80" s="5">
-        <v>22.3</v>
+        <v>21.2</v>
       </c>
       <c r="C80" s="5">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D80" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="22"/>
+        <v>3.0</v>
+      </c>
+      <c r="E80" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G80" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="F81" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="G81" s="18" t="s">
-        <v>50</v>
+      <c r="A81" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="5">
+        <v>22.3</v>
+      </c>
+      <c r="C81" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="D81" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B82" s="5">
-        <v>22.5</v>
-      </c>
-      <c r="C82" s="5">
-        <v>17.9</v>
-      </c>
-      <c r="D82" s="5">
-        <v>3.9</v>
-      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
       <c r="E82" s="5">
         <v>2.0</v>
       </c>
       <c r="F82" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>51</v>
+        <v>1.0</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="19" t="s">
-        <v>52</v>
+      <c r="A83" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="B83" s="5">
-        <v>22.9</v>
+        <v>22.5</v>
       </c>
       <c r="C83" s="5">
-        <v>16.6</v>
-      </c>
-      <c r="D83" s="14"/>
+        <v>17.9</v>
+      </c>
+      <c r="D83" s="5">
+        <v>3.9</v>
+      </c>
       <c r="E83" s="5">
         <v>2.0</v>
       </c>
       <c r="F83" s="22">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84">
@@ -13104,35 +13103,55 @@
         <v>52</v>
       </c>
       <c r="B84" s="5">
-        <v>21.3</v>
+        <v>22.9</v>
       </c>
       <c r="C84" s="5">
-        <v>15.4</v>
+        <v>16.6</v>
       </c>
       <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="22"/>
+      <c r="E84" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F84" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G84" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="20"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
+      <c r="A85" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85" s="5">
+        <v>21.3</v>
+      </c>
+      <c r="C85" s="5">
+        <v>15.4</v>
+      </c>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="20"/>
+      <c r="A86" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
       <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
+      <c r="E86" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F86" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="20"/>
@@ -21603,6 +21622,15 @@
       <c r="F1027" s="21"/>
       <c r="G1027" s="21"/>
     </row>
+    <row r="1028">
+      <c r="A1028" s="20"/>
+      <c r="B1028" s="21"/>
+      <c r="C1028" s="21"/>
+      <c r="D1028" s="21"/>
+      <c r="E1028" s="21"/>
+      <c r="F1028" s="21"/>
+      <c r="G1028" s="21"/>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/nesting_conopophagidae.xlsx
+++ b/nesting_conopophagidae.xlsx
@@ -17,6 +17,123 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="F27">
+      <text>
+        <t xml:space="preserve">"height of 40.6 ± 16.1 cm (range = 15–75) above the ground (N = 22).
+	-Odilon Vieira
+----
+Pereira et al. (2022): "40,6 ± 16,1 cm (N = 21)".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D27">
+      <text>
+        <t xml:space="preserve">"external diameter of 79.1 ± 11.1 mm (N = 21)".
+	-Odilon Vieira
+----
+Pereira et al. (2022): "79.1 ± 11.1 mm (n = 21)".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B27">
+      <text>
+        <t xml:space="preserve">"internal diameter of 59.4 ± 7.2 mm (N = 21)".
+	-Odilon Vieira
+----
+Pereira et al. (2022): "59.4 ± 7.2 mm (n = 21)".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C27">
+      <text>
+        <t xml:space="preserve">"depth of 40.6 ± 16.1 mm (N = 21)".
+	-Odilon Vieira
+----
+Pereira et al. (2022): "40.6 ± 16.1 mm (n = 21)".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E13">
+      <text>
+        <t xml:space="preserve">"8.6 cm ± 0.35 SE for cup height (N = 58)".
+	-Odilon Vieira
+----
+Studer et al. (2019): "8.6 cm ± 0.35 SE n = 58".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C13">
+      <text>
+        <t xml:space="preserve">"3.78 cm ± 0.25 SE for depth of nest cup (N = 58)".
+	-Odilon Vieira
+----
+Studer et al. (2019): "3.78 cm ± 0.25 SE n = 58".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B13">
+      <text>
+        <t xml:space="preserve">"6.11 cm ± 0.14 SE internal diameter (N = 58)".
+	-Odilon Vieira
+----
+Studer et al. (2019): "6.11 cm ± 0.14 SE n = 58".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D13">
+      <text>
+        <t xml:space="preserve">"13.6 cm ± 0.54 SE external diameter (N = 58)".
+	-Odilon Vieira
+----
+Studer et al. (2019): "13.6 cm ± 0.54 SE n = 58".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F13">
+      <text>
+        <t xml:space="preserve">"Heights above ground ranged from 30 to 265 cm (x̅ = 69.4cm; ± 4.33 SE; N = 99)".
+	-Odilon Vieira
+----
+Studer et al. 2019: "Heights above ground ranged from 30 to 265 cm (x̅ = 69.4cm; ± 4.33 SE; N = 99)".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F41">
+      <text>
+        <t xml:space="preserve">"entre 20 e 50 cm do solo (0,35 ± 0,11 cm, n = 7)".
+	-Odilon Vieira
+----
+Marini et al. (2007): "0,35 ± 0,11 cm, (n = 7), 20-50".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C41">
+      <text>
+        <t xml:space="preserve">"5,1 ± 0,3 cm de profundidade (n = 3)".
+	-Odilon Vieira
+----
+Marini et al. (2007): "5,1 ± 0,3 cm (n = 3)".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B41">
+      <text>
+        <t xml:space="preserve">"7,4 ± 0,4 cm de diâmetro interno (n = 4)"
+	-Odilon Vieira
+----
+Marini et al. (2007): "7,4 ± 0,4 cm (n = 4)".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D41">
+      <text>
+        <t xml:space="preserve">"12 ± 1,1 cm de diâmetro externo (n = 4)"
+	-Odilon Vieira
+----
+Marini et al. (2007): "12 ± 1,1 cm (n = 4)"
+	-Odilon Vieira</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="F40">
       <text>
         <t xml:space="preserve">Whitney (2003): "nearly 2 m".
@@ -63,6 +180,93 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="C83">
+      <text>
+        <t xml:space="preserve">" 17.9 ± 0.9 mm (N = 3)".
+	-Odilon Vieira
+----
+Lizarazo &amp; Londoño (2022): " 17.9 ± 0.9 mm (n = 3)".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B83">
+      <text>
+        <t xml:space="preserve">"22.5 ± 1.1 mm (N = 3)".
+	-Odilon Vieira
+----
+Lizarazo &amp; Londoño (2022): " 22.5 ± 1.1 mm (n = 3)".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C39">
+      <text>
+        <t xml:space="preserve">"17.2 ± 0.8 mm (N = 23)".
+	-Odilon Vieira
+----
+Pereira et al. (2022): "17,2 ± 0,8 mm (n = 23)".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B39">
+      <text>
+        <t xml:space="preserve">"21.3 ± 0.8 mm (N = 23)".
+	-Odilon Vieira
+----
+Pereira et al. (2022): "21,3 ± 0,8 mm (n = 23)".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D14">
+      <text>
+        <t xml:space="preserve">"3.21g ± 0.1 SE (N = 40)".
+	-Odilon Vieira
+----
+Studer et al. (2019): "3.21g ± 0.1 SE (n = 40)".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B14">
+      <text>
+        <t xml:space="preserve">"22.41 mm ± 0.07 SE long (N = 41)".
+	-Odilon Vieira
+----
+Studer et al. (2019): "22.41 mm ± 0.07 SE (n = 41)".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C14">
+      <text>
+        <t xml:space="preserve">"17.03 mm ± 0.08 SE wide (N = 41)".
+	-Odilon Vieira
+----
+Studer et al. (2019): "17.03 mm ± 0.08 SE (n = 41)".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F66">
+      <text>
+        <t xml:space="preserve">"Three nests containing one, two and two eggs were found, [...]. A nest with four nestlings attended by at least one adult was found, ...".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F63">
+      <text>
+        <t xml:space="preserve">"Doze ninhos foram encontrados, a maioria com dois ovos (n = 10), mas também registramos uma ninhada de um ovo e uma de três ovos".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D83">
+      <text>
+        <t xml:space="preserve">"3.9 ± 1.5 g (N = 3)"
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D39">
+      <text>
+        <t xml:space="preserve">"3.1 ± 0.1 g (N = 23)".
+	-Odilon Vieira</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="F13">
       <text>
         <t xml:space="preserve">Possibly 13, which was the number of nests analyzed by Stenzel &amp; Souza (2014), but the number of clutches was not specified.
@@ -1383,7 +1587,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>. (2003)</t>
+      <t>. (2013)</t>
     </r>
   </si>
   <si>

--- a/nesting_conopophagidae.xlsx
+++ b/nesting_conopophagidae.xlsx
@@ -17,6 +17,18 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="C53">
+      <text>
+        <t xml:space="preserve">Jorge Lizarazo in litt. (2023)
+	-Odilon Vieira</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C52">
+      <text>
+        <t xml:space="preserve">Jorge Lizarazo in litt. (2023)
+	-Odilon Vieira</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="F27">
       <text>
         <t xml:space="preserve">"height of 40.6 ± 16.1 cm (range = 15–75) above the ground (N = 22).
@@ -3119,8 +3131,8 @@
       <c r="B52" s="5">
         <v>70.6</v>
       </c>
-      <c r="C52" s="15">
-        <v>4.95</v>
+      <c r="C52" s="5">
+        <v>49.5</v>
       </c>
       <c r="D52" s="15">
         <f>MEDIAN(107.4,121.5)</f>
@@ -3144,8 +3156,8 @@
         <f>MEDIAN(70.7,65.8)</f>
         <v>68.25</v>
       </c>
-      <c r="C53" s="15">
-        <v>3.9</v>
+      <c r="C53" s="5">
+        <v>39.1</v>
       </c>
       <c r="D53" s="15">
         <f>MEDIAN(132,112.3)</f>
